--- a/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.03042226040811456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02252039558329611</v>
+        <v>0.0225203955832961</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003623587663078057</v>
+        <v>0.003692945839890554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01102007949706434</v>
+        <v>0.01261844978735636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009793072672836602</v>
+        <v>0.01061081738172632</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04511076864622195</v>
+        <v>0.04737872046552111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.069081257051016</v>
+        <v>0.0675396890981815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04413663417019684</v>
+        <v>0.04324387200869625</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005849706909639285</v>
+        <v>0.004911135400619595</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009791859167452007</v>
+        <v>0.0102646737064327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009875209946269193</v>
+        <v>0.01018693580679127</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04546824449015739</v>
+        <v>0.04766551706564737</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03700787394179174</v>
+        <v>0.03889049752417545</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03178359448522181</v>
+        <v>0.03310351336104177</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01016644974042162</v>
+        <v>0.009080780028083294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0161056229333173</v>
+        <v>0.01829256645329628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01620646565786396</v>
+        <v>0.01589382690378816</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03278337670704501</v>
+        <v>0.03232509404651726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03848517539836176</v>
+        <v>0.03993591547905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03254709387500489</v>
+        <v>0.03213419026342296</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007899768290818418</v>
+        <v>0.008221053937867167</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04204695019166154</v>
+        <v>0.04205007289618058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0283973371272303</v>
+        <v>0.0275429009052155</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02760485681305691</v>
+        <v>0.0269681907287869</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06724430212863017</v>
+        <v>0.06983085547504948</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04517481481473238</v>
+        <v>0.04471644026384056</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008473068724633518</v>
+        <v>0.00817319028755125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04730893600915215</v>
+        <v>0.04782239425731301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03060861082635736</v>
+        <v>0.03105941277679346</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03045539681434851</v>
+        <v>0.02973031537594785</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07761225657115647</v>
+        <v>0.077678876272039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04939080665890936</v>
+        <v>0.05059035128654177</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.05198347464757802</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.07483495704637057</v>
+        <v>0.07483495704637055</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.06384243692547743</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0374599841423048</v>
+        <v>0.03605641830593492</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05819408415027784</v>
+        <v>0.05801374180087136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05218951634075308</v>
+        <v>0.05233937387354669</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07336960752279603</v>
+        <v>0.07430198037565656</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09490824491648824</v>
+        <v>0.09557162635111677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07769202655023814</v>
+        <v>0.07695384187077335</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.04497477093945298</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09741949228983175</v>
+        <v>0.09741949228983174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.07640679430704252</v>
+        <v>0.0764067943070425</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02854853574917028</v>
+        <v>0.02764114198410481</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07718610082298812</v>
+        <v>0.07874355803656564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06301440554575424</v>
+        <v>0.06160591297865183</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06567647324321782</v>
+        <v>0.06660165744278491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1206278408966545</v>
+        <v>0.1192410455587896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09207193986277672</v>
+        <v>0.09319559015708688</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.02319484778518329</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1478</v>
+        <v>1506</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3995</v>
+        <v>4574</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7544</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18396</v>
+        <v>19321</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25043</v>
+        <v>24484</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33999</v>
+        <v>33311</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2790</v>
+        <v>2342</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4907</v>
+        <v>5143</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9658</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21683</v>
+        <v>22731</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18544</v>
+        <v>19487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31083</v>
+        <v>32374</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6312</v>
+        <v>5638</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10020</v>
+        <v>11381</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20144</v>
+        <v>19756</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20353</v>
+        <v>20069</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23943</v>
+        <v>24846</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40455</v>
+        <v>39942</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5535</v>
+        <v>5760</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30984</v>
+        <v>30986</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40821</v>
+        <v>39593</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19340</v>
+        <v>18894</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49551</v>
+        <v>51457</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64939</v>
+        <v>64280</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5163</v>
+        <v>4980</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28772</v>
+        <v>29084</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37267</v>
+        <v>37815</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18558</v>
+        <v>18116</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47202</v>
+        <v>47242</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60134</v>
+        <v>61595</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15249</v>
+        <v>14678</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25557</v>
+        <v>25478</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>44165</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29867</v>
+        <v>30247</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>41680</v>
+        <v>41972</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>65747</v>
+        <v>65122</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8856</v>
+        <v>8574</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>35815</v>
+        <v>36538</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>48786</v>
+        <v>47696</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20373</v>
+        <v>20660</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55973</v>
+        <v>55329</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>71283</v>
+        <v>72153</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
     </row>
     <row r="36">
